--- a/Test_Plan_M06_Certifications.xlsx
+++ b/Test_Plan_M06_Certifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uddcl-my.sharepoint.com/personal/mlarrondo_udd_cl/Documents/Escritorio/BootcampDWFS/ProyectosDWFS/ProyectoM06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_094DE197917BECCFEB3B98154B8CD63BF39C9FB9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC92798A-E0ED-451C-AC6A-621B7E096CDB}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_41253B1ED163F8FF636EC837555DCE3AE7448B70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2784BB80-F6DB-4842-BF8A-3D8262EB5B73}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan M06" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="157">
+  <si>
+    <t>TC-ID</t>
+  </si>
   <si>
     <t>Módulo</t>
   </si>
@@ -31,16 +34,22 @@
     <t>Método</t>
   </si>
   <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>Caso de Prueba</t>
-  </si>
-  <si>
-    <t>Body JSON (Postman)</t>
-  </si>
-  <si>
-    <t>Resultado Esperado (HTTP)</t>
+    <t>Environment/Rol</t>
+  </si>
+  <si>
+    <t>Caso de prueba</t>
+  </si>
+  <si>
+    <t>Body / Headers (Postman)</t>
+  </si>
+  <si>
+    <t>Resultado esperado (HTTP)</t>
+  </si>
+  <si>
+    <t>Validación clave (qué revisar)</t>
+  </si>
+  <si>
+    <t>TC-001</t>
   </si>
   <si>
     <t>Users</t>
@@ -55,25 +64,130 @@
     <t>Public</t>
   </si>
   <si>
-    <t>Registro exitoso</t>
-  </si>
-  <si>
-    <t>{ "email": "user@test.com", "password": "123456", "role": "admin" }</t>
+    <t>Registro OK (admin)</t>
+  </si>
+  <si>
+    <t>{ "name": "Admin QA", "email": "admin.qa+{{ts}}@test.com", "password": "123456", "role": "admin" }</t>
   </si>
   <si>
     <t>201 Created</t>
   </si>
   <si>
+    <t>Respuesta NO debe incluir password; user creado con role=admin</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>Registro OK (sede Santiago)</t>
+  </si>
+  <si>
+    <t>{ "name": "Sede Stgo QA", "email": "stgo.qa+{{ts}}@test.com", "password": "123456", "role": "sede_santiago" }</t>
+  </si>
+  <si>
+    <t>role= sede_santiago</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>Registro OK (sede Concepción)</t>
+  </si>
+  <si>
+    <t>{ "name": "Sede Conce QA", "email": "conce.qa+{{ts}}@test.com", "password": "123456", "role": "sede_concepcion" }</t>
+  </si>
+  <si>
+    <t>role= sede_concepcion</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>Registro falla por email duplicado</t>
+  </si>
+  <si>
+    <t>Repetir el email ya creado (misma request que TC-001)</t>
+  </si>
+  <si>
+    <t>409 Conflict (o 400 si controller no maneja duplicado)</t>
+  </si>
+  <si>
+    <t>Debe impedir duplicado por unique email</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>Registro falla por password corto (&lt;6)</t>
+  </si>
+  <si>
+    <t>{ "name": "Bad Pass", "email": "badpass+{{ts}}@test.com", "password": "123", "role": "admin" }</t>
+  </si>
+  <si>
+    <t>400 Bad Request</t>
+  </si>
+  <si>
+    <t>minlength 6 en password</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>Registro falla por role inválido</t>
+  </si>
+  <si>
+    <t>{ "name": "Bad Role", "email": "badrole+{{ts}}@test.com", "password": "123456", "role": "superadmin" }</t>
+  </si>
+  <si>
+    <t>role debe ser: admin | sede_santiago | sede_concepcion</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>Registro falla por campos faltantes</t>
+  </si>
+  <si>
+    <t>{ "email": "nofields+{{ts}}@test.com" }</t>
+  </si>
+  <si>
+    <t>name, email, password son required</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
     <t>/api/users/login</t>
   </si>
   <si>
-    <t>Login correcto</t>
-  </si>
-  <si>
-    <t>{ "email": "user@test.com", "password": "123456" }</t>
-  </si>
-  <si>
-    <t>200 OK (token)</t>
+    <t>Login OK</t>
+  </si>
+  <si>
+    <t>{ "email": "admin.qa+{{ts}}@test.com", "password": "123456" }</t>
+  </si>
+  <si>
+    <t>200 OK</t>
+  </si>
+  <si>
+    <t>Se guarda token en {{token}}</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>Login falla (credenciales incorrectas)</t>
+  </si>
+  <si>
+    <t>{ "email": "admin.qa+{{ts}}@test.com", "password": "wrongpass" }</t>
+  </si>
+  <si>
+    <t>401 Unauthorized</t>
+  </si>
+  <si>
+    <t>No debe retornar token</t>
+  </si>
+  <si>
+    <t>TC-010</t>
   </si>
   <si>
     <t>/api/users/verifytoken</t>
@@ -85,13 +199,28 @@
     <t>Auth</t>
   </si>
   <si>
-    <t>Token válido</t>
-  </si>
-  <si>
-    <t>Authorization: Bearer {{token}}</t>
-  </si>
-  <si>
-    <t>200 OK</t>
+    <t>Verify OK (token válido)</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {{token}}</t>
+  </si>
+  <si>
+    <t>Devuelve user/claims o msg OK</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>Verify falla (sin token)</t>
+  </si>
+  <si>
+    <t>Sin header Authorization</t>
+  </si>
+  <si>
+    <t>Bloquea acceso sin JWT</t>
+  </si>
+  <si>
+    <t>TC-012</t>
   </si>
   <si>
     <t>/api/users/update</t>
@@ -100,10 +229,23 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>Actualizar usuario</t>
-  </si>
-  <si>
-    <t>{ "password": "newpassword123" }</t>
+    <t>Update OK (cambio de nombre)</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {{token}}
+Body: { "name": "Admin QA Updated" }</t>
+  </si>
+  <si>
+    <t>Usuario actualizado; no incluye password</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>Update falla (sin token)</t>
+  </si>
+  <si>
+    <t>TC-014</t>
   </si>
   <si>
     <t>Certifications</t>
@@ -115,50 +257,274 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Crear certificación</t>
-  </si>
-  <si>
-    <t>{ "certCode": 9001, "name": "Certificación M06", "campus": "Santiago", "ownerUnit": "Ingeniería" }</t>
-  </si>
-  <si>
-    <t>Listar certificaciones</t>
-  </si>
-  <si>
-    <t>No body</t>
+    <t>Crear certificación OK (campus Santiago)</t>
+  </si>
+  <si>
+    <t>{ "certCode": 9001, "name": "Certificación QA M06", "campus": "Santiago", "ownerUnit": "Facultad de Ingeniería" }</t>
+  </si>
+  <si>
+    <t>certCode único; campus y ownerUnit válidos</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>Crear certificación falla (certCode duplicado)</t>
+  </si>
+  <si>
+    <t>Repetir certCode 9001 con otro name</t>
+  </si>
+  <si>
+    <t>409 Conflict</t>
+  </si>
+  <si>
+    <t>No permite crear si certCode ya existe</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>Crear certificación falla (campus inválido)</t>
+  </si>
+  <si>
+    <t>{ "certCode": 9002, "name": "Bad Campus", "campus": "Valdivia", "ownerUnit": "Facultad de Ingeniería" }</t>
+  </si>
+  <si>
+    <t>campus debe ser "Santiago" o "Concepción"</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>Crear certificación falla (ownerUnit inválido)</t>
+  </si>
+  <si>
+    <t>{ "certCode": 9003, "name": "Bad Unit", "campus": "Santiago", "ownerUnit": "Facultad X" }</t>
+  </si>
+  <si>
+    <t>ownerUnit debe ser uno de: Facultad de Ingeniería, Facultad de Economía y Negocios, Facultad de Comunicaciones, DFED, Globalización, FARO, EsploraTec</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>Crear certificación falla (campos faltantes)</t>
+  </si>
+  <si>
+    <t>{ "certCode": 9004 }</t>
+  </si>
+  <si>
+    <t>certCode, name, campus, ownerUnit son obligatorios</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t>Sede Santiago</t>
+  </si>
+  <si>
+    <t>Crear certificación OK (campus forzado a Santiago)</t>
+  </si>
+  <si>
+    <t>{ "certCode": 9101, "name": "Cert Stgo QA", "campus": "Concepción", "ownerUnit": "Facultad de Ingeniería" }</t>
+  </si>
+  <si>
+    <t>Respuesta/DB debe quedar con campus="Santiago" (ignora body)</t>
+  </si>
+  <si>
+    <t>TC-020</t>
+  </si>
+  <si>
+    <t>Sede Concepción</t>
+  </si>
+  <si>
+    <t>Crear certificación OK (campus forzado a Concepción)</t>
+  </si>
+  <si>
+    <t>{ "certCode": 9201, "name": "Cert Conce QA", "campus": "Santiago", "ownerUnit": "Facultad de Ingeniería" }</t>
+  </si>
+  <si>
+    <t>Respuesta/DB debe quedar con campus="Concepción" (ignora body)</t>
+  </si>
+  <si>
+    <t>TC-021</t>
+  </si>
+  <si>
+    <t>Listar todas las certificaciones</t>
+  </si>
+  <si>
+    <t>Debe incluir campus Santiago y Concepción</t>
+  </si>
+  <si>
+    <t>TC-022</t>
+  </si>
+  <si>
+    <t>Listar certificaciones (solo Santiago)</t>
+  </si>
+  <si>
+    <t>Todas las certifications deben tener campus="Santiago"</t>
+  </si>
+  <si>
+    <t>TC-023</t>
+  </si>
+  <si>
+    <t>Listar certificaciones (solo Concepción)</t>
+  </si>
+  <si>
+    <t>Todas las certifications deben tener campus="Concepción"</t>
+  </si>
+  <si>
+    <t>TC-024</t>
   </si>
   <si>
     <t>/api/certifications/:certCode</t>
   </si>
   <si>
-    <t>Detalle certificación</t>
-  </si>
-  <si>
-    <t>Actualizar certificación</t>
-  </si>
-  <si>
-    <t>{ "name": "Certificación M06 Actualizada", "ownerUnit": "Postgrado" }</t>
+    <t>Detalle OK (certCode de Santiago)</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {{token}}
+Path: :certCode = 9101</t>
+  </si>
+  <si>
+    <t>Debe retornar certification con certCode solicitado</t>
+  </si>
+  <si>
+    <t>TC-025</t>
+  </si>
+  <si>
+    <t>Acceso cruzado bloqueado (certCode de Concepción)</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {{token}}
+Path: :certCode = 9201</t>
+  </si>
+  <si>
+    <t>403 Forbidden</t>
+  </si>
+  <si>
+    <t>Debe bloquear ver certificación de otro campus</t>
+  </si>
+  <si>
+    <t>TC-026</t>
+  </si>
+  <si>
+    <t>Actualizar OK (name y ownerUnit)</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {token}
+Path: :certCode = 9001
+Body: { "name": "Cert QA M06 Updated", "ownerUnit": "Facultad de Economía y Negocios" }</t>
+  </si>
+  <si>
+    <t>Campos actualizados se reflejan en respuesta</t>
+  </si>
+  <si>
+    <t>TC-027</t>
+  </si>
+  <si>
+    <t>Actualizar falla (ownerUnit inválido)</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {{token}}
+Path: :certCode = 9001
+Body: { "ownerUnit": "Unidad X" }</t>
+  </si>
+  <si>
+    <t>Debe validar enum ownerUnit</t>
+  </si>
+  <si>
+    <t>TC-028</t>
+  </si>
+  <si>
+    <t>Actualizar OK (solo name) dentro de su campus</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {{token}}
+Path: :certCode = 9101
+Body: { "name": "Cert Stgo Updated" }</t>
+  </si>
+  <si>
+    <t>Permite actualizar campos permitidos</t>
+  </si>
+  <si>
+    <t>TC-029</t>
+  </si>
+  <si>
+    <t>Actualizar bloqueado (intenta cambiar campus)</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {{token}}
+Path: :certCode = 9101
+Body: { "campus": "Concepción" }</t>
+  </si>
+  <si>
+    <t>Solo admin puede modificar campus</t>
+  </si>
+  <si>
+    <t>TC-030</t>
+  </si>
+  <si>
+    <t>Actualizar bloqueado (certCode de otro campus)</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {{token}}
+Path: :certCode = 9201
+Body: { "name": "Hack" }</t>
+  </si>
+  <si>
+    <t>Debe bloquear update cruzado</t>
+  </si>
+  <si>
+    <t>TC-031</t>
   </si>
   <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>Eliminar certificación</t>
-  </si>
-  <si>
-    <t>Resultado</t>
+    <t>Eliminar OK (sin requisitos asociados)</t>
+  </si>
+  <si>
+    <t>Header: Authorization: Bearer {{token}}
+Path: :certCode = (usar uno sin requirements)</t>
+  </si>
+  <si>
+    <t>Certificación eliminada</t>
+  </si>
+  <si>
+    <t>TC-032</t>
+  </si>
+  <si>
+    <t>Eliminar bloqueado (certCode de otro campus)</t>
+  </si>
+  <si>
+    <t>Bloquea delete cruzado</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,18 +547,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -208,17 +631,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A9947DA-212B-4E16-AAA1-82D33167A625}" name="Tabla1" displayName="Tabla1" ref="A1:H10" totalsRowShown="0">
-  <autoFilter ref="A1:H10" xr:uid="{9A9947DA-212B-4E16-AAA1-82D33167A625}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0AB0E194-75C7-4292-96B9-2029D624C988}" name="Módulo"/>
-    <tableColumn id="2" xr3:uid="{8D5DACB8-8211-4EA5-ACAA-4B10C5ADF38F}" name="Endpoint"/>
-    <tableColumn id="3" xr3:uid="{2C0895C7-71F5-4FA3-A6E5-2BA15F3A89F6}" name="Método"/>
-    <tableColumn id="4" xr3:uid="{924FDFAD-2B1E-4274-8F39-339D206F7EE3}" name="Rol"/>
-    <tableColumn id="5" xr3:uid="{1A1A3D64-69FE-4535-AD0A-D1F8890E6F88}" name="Caso de Prueba"/>
-    <tableColumn id="6" xr3:uid="{4A6213DA-4853-4FA7-B25A-DA3544DCE584}" name="Body JSON (Postman)" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{07ABE274-A055-4C97-AEE7-BAD298C1EFA0}" name="Resultado Esperado (HTTP)"/>
-    <tableColumn id="8" xr3:uid="{4362ED8C-3EFF-4D94-BE68-D1582C15DBD9}" name="Resultado"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4571C2EC-959B-43AB-8772-B3DD4FE97E1E}" name="Tabla1" displayName="Tabla1" ref="A1:J33" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2">
+  <autoFilter ref="A1:J33" xr:uid="{4571C2EC-959B-43AB-8772-B3DD4FE97E1E}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{A451AB9B-72F3-4E9F-9FCC-716A7816C685}" name="TC-ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{152EB978-CE14-4CD5-AC7F-7506E5502723}" name="Módulo" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F2CB95D1-7E3F-4B87-A37A-99459BAB42E4}" name="Endpoint" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{578A404C-CB46-4A91-9384-7FD3D6B77245}" name="Método" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{37C018A6-D0AA-4A8D-89BF-D6C3A2EAD483}" name="Environment/Rol" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{177D0573-8C19-4371-A5D6-F9ED96437EDD}" name="Caso de prueba" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{8CABE1B2-CC04-47A4-852E-A3CB79D701FB}" name="Body / Headers (Postman)" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{66B9A89D-9FCE-498A-AC6F-F635A21A5E1F}" name="Resultado esperado (HTTP)" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{3D57C0BD-FCC8-40FC-AB5D-18B05222AEC9}" name="Validación clave (qué revisar)" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{0D60D600-0F5A-4634-AEDF-411E12F6C32C}" name="Estado" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,261 +934,1086 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="60" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="J4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
+      <c r="I17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>